--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -111,13 +111,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -184,6 +184,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -494,7 +500,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -589,58 +595,74 @@
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D9" s="2">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>user</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>F9B351E9</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -545,7 +551,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -657,12 +663,32 @@
         <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>user</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>F9B351E9</t>
+  </si>
+  <si>
+    <t>poooq</t>
+  </si>
+  <si>
+    <t>E9956AF6</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -551,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>9</v>
@@ -663,7 +669,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>21</v>
@@ -683,12 +689,32 @@
         <v>24</v>
       </c>
       <c r="D10" s="2">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>user</t>
   </si>
@@ -49,90 +49,46 @@
     <t>true</t>
   </si>
   <si>
-    <t>charlie</t>
-  </si>
-  <si>
-    <t>pass3</t>
-  </si>
-  <si>
-    <t>19AF56E9</t>
-  </si>
-  <si>
-    <t>103|202</t>
-  </si>
-  <si>
-    <t>Jacobe</t>
-  </si>
-  <si>
-    <t>pass4</t>
-  </si>
-  <si>
-    <t>202|204</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>F9B351E9</t>
-  </si>
-  <si>
-    <t>poooq</t>
-  </si>
-  <si>
-    <t>E9956AF6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,54 +127,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="15">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -512,210 +484,178 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.147857142857141" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.147857142857141" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.147857142857141" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.147857142857141" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.719285714285713" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.147857142857141" style="1" customWidth="1"/>
+    <col min="1" max="1" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="13" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>22</v>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>user</t>
   </si>
@@ -34,61 +34,69 @@
     <t>access</t>
   </si>
   <si>
-    <t>alice</t>
-  </si>
-  <si>
-    <t>pass1</t>
+    <t/>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>E9956AF6</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>YAHYA</t>
   </si>
   <si>
     <t>591EF2D4</t>
-  </si>
-  <si>
-    <t>101|102</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <family val="2"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -100,11 +108,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf2f2f2"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,83 +122,70 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,10 +196,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -242,71 +237,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -334,7 +329,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -357,11 +352,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -370,13 +365,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -386,7 +381,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -395,7 +390,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -404,7 +399,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -412,10 +407,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -484,178 +479,192 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5">
-        <v>25</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D11" s="2">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="6" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>user</t>
   </si>
@@ -34,38 +34,23 @@
     <t>access</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>E9956AF6</t>
+    <t>YAHYA</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>YAHYA</t>
-  </si>
-  <si>
-    <t>591EF2D4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -84,19 +69,13 @@
       <color rgb="FF000000"/>
       <family val="2"/>
       <sz val="11"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color rgb="FF000000"/>
       <family val="2"/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -108,7 +87,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFf2f2f2"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,16 +101,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -139,14 +118,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -157,21 +139,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -196,10 +172,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -237,71 +213,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -329,7 +305,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -352,11 +328,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -365,13 +341,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -381,7 +357,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -390,7 +366,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -399,7 +375,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -407,10 +383,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -479,192 +455,178 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.45" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.147857142857141" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.147857142857141" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.147857142857141" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.147857142857141" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.719285714285713" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.147857142857141" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+    <row r="2" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" ht="20.25" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="19.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>user</t>
   </si>
@@ -34,16 +34,22 @@
     <t>access</t>
   </si>
   <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
     <t>YAHYA</t>
   </si>
   <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>TRUE</t>
+    <t>110</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -610,22 +616,50 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>user</t>
   </si>
@@ -34,22 +34,19 @@
     <t>access</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>YAHYA</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>591EF2D4</t>
+  </si>
+  <si>
+    <t>103|100</t>
   </si>
   <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>YAHYA</t>
-  </si>
-  <si>
-    <t>110</t>
   </si>
 </sst>
 </file>
@@ -461,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -624,43 +621,55 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>user</t>
   </si>
@@ -37,13 +37,10 @@
     <t>YAHYA</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>591EF2D4</t>
-  </si>
-  <si>
-    <t>103|100</t>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -458,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -653,23 +650,55 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -37,10 +37,10 @@
     <t>YAHYA</t>
   </si>
   <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>591EF2D4</t>
+  </si>
+  <si>
+    <t>105</t>
   </si>
   <si>
     <t>TRUE</t>
@@ -455,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -682,22 +682,30 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="2">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -700,7 +700,7 @@
         <v>7</v>
       </c>
       <c r="D27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>user</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>105|103</t>
   </si>
 </sst>
 </file>
@@ -455,7 +461,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -709,6 +715,66 @@
         <v>9</v>
       </c>
     </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -46,17 +46,17 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>105|103</t>
+    <t>6BF02F00</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -72,16 +72,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -124,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -146,15 +140,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -496,282 +481,42 @@
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" ht="20.25" customHeight="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" ht="20.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -46,10 +46,10 @@
     <t>TRUE</t>
   </si>
   <si>
+    <t>TEST</t>
+  </si>
+  <si>
     <t>6BF02F00</t>
-  </si>
-  <si>
-    <t>103</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -501,22 +501,30 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="2">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>user</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>6BF02F00</t>
+  </si>
+  <si>
+    <t>105|104|103|101</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>835DF613</t>
+  </si>
+  <si>
+    <t>104|101</t>
   </si>
 </sst>
 </file>
@@ -446,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -519,12 +531,40 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -559,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>user</t>
   </si>
@@ -53,15 +53,6 @@
   </si>
   <si>
     <t>105|104|103|101</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>835DF613</t>
-  </si>
-  <si>
-    <t>104|101</t>
   </si>
 </sst>
 </file>
@@ -458,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -531,7 +522,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
@@ -549,24 +540,20 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>user</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>105|104|103|101</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>E9956AF6</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -555,6 +561,26 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>user</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>105|104|103|101</t>
-  </si>
-  <si>
-    <t>hhhhhhhhhhhhhhhhhhhhhhh</t>
-  </si>
-  <si>
-    <t>E9956AF6</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -562,24 +556,28 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>user</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>105|104|103|101</t>
+  </si>
+  <si>
+    <t>frrr</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>103</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -579,6 +588,50 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>user</t>
   </si>
@@ -46,22 +46,10 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>TEST</t>
+    <t>gggd</t>
   </si>
   <si>
     <t>6BF02F00</t>
-  </si>
-  <si>
-    <t>105|104|103|101</t>
-  </si>
-  <si>
-    <t>frrr</t>
-  </si>
-  <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>103</t>
   </si>
 </sst>
 </file>
@@ -458,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -521,24 +509,12 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -613,22 +589,38 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>user</t>
   </si>
@@ -50,6 +50,15 @@
   </si>
   <si>
     <t>6BF02F00</t>
+  </si>
+  <si>
+    <t>frrr</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -491,7 +500,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -615,12 +624,32 @@
         <v>11</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>user</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>gggd</t>
-  </si>
-  <si>
-    <t>6BF02F00</t>
-  </si>
-  <si>
-    <t>frrr</t>
-  </si>
-  <si>
-    <t>EA4C7814</t>
-  </si>
-  <si>
-    <t>106</t>
   </si>
 </sst>
 </file>
@@ -614,44 +599,20 @@
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -440,7 +440,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -614,6 +614,14 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>user</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>TRUE</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>6BF02F00</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -622,6 +631,26 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Server/rfid-server-DBS-Http/users.xlsx
+++ b/Server/rfid-server-DBS-Http/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>user</t>
   </si>
@@ -46,13 +46,16 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>6BF02F00</t>
   </si>
   <si>
-    <t>102</t>
+    <t>ASDSAD</t>
+  </si>
+  <si>
+    <t>EA4C7814</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -632,22 +635,114 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
